--- a/experiment_results/backup_result/worst_case/Elevator/4wise/0.95_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/4wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="23">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -480,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -512,7 +514,7 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -544,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -576,7 +578,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -608,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -640,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -672,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -704,7 +706,7 @@
         <v>95</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -736,7 +738,7 @@
         <v>131</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -768,7 +770,7 @@
         <v>86</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -800,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -832,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -864,7 +866,7 @@
         <v>73</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -941,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -973,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1005,7 +1007,7 @@
         <v>76</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -1037,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1069,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1101,7 +1103,7 @@
         <v>43</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1133,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>49</v>
@@ -1165,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1197,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1229,7 +1231,7 @@
         <v>64</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1261,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1293,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1325,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1402,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1434,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1457,16 +1459,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>104</v>
@@ -1498,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1530,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1553,16 +1555,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>33</v>
@@ -1585,16 +1587,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>51</v>
@@ -1626,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1658,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1690,7 +1692,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1722,7 +1724,7 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1754,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1780,13 +1782,13 @@
         <v>68</v>
       </c>
       <c r="C14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>67</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>93</v>
@@ -1863,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -1895,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1918,16 +1920,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C4">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -1959,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1991,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2014,16 +2016,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2046,16 +2048,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="C8">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D8">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2087,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2110,16 +2112,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2151,7 +2153,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2183,7 +2185,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2206,16 +2208,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2238,16 +2240,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2318,13 +2320,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -2356,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2382,13 +2384,13 @@
         <v>141</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>266</v>
@@ -2420,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2446,13 +2448,13 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2478,13 +2480,13 @@
         <v>77</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>76</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>108</v>
@@ -2507,16 +2509,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C8">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>408</v>
@@ -2548,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2580,7 +2582,7 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2612,7 +2614,7 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -2644,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2670,13 +2672,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2699,16 +2701,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>320</v>
@@ -2785,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2817,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2849,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -2881,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2913,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2945,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2977,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -3009,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3041,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3073,7 +3075,7 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -3105,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -3137,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3169,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -3246,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -3278,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3310,7 +3312,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3342,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3374,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3406,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3438,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -3470,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3502,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3534,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3566,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3598,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3630,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -3643,6 +3645,928 @@
       </c>
       <c r="K14">
         <v>399</v>
+      </c>
+      <c r="L14">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>103</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>415</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>371</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>393</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>371</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>396</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>264</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>393</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>273</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>388</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>388</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>388</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>286</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>388</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>202</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>402</v>
+      </c>
+      <c r="L13">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>251</v>
+      </c>
+      <c r="G14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>399</v>
+      </c>
+      <c r="L14">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>103</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>441</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>198</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>325</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>415</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <v>285</v>
+      </c>
+      <c r="G6">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <v>264</v>
+      </c>
+      <c r="G7">
+        <v>319</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>415</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>268</v>
+      </c>
+      <c r="C8">
+        <v>224</v>
+      </c>
+      <c r="D8">
+        <v>268</v>
+      </c>
+      <c r="E8">
+        <v>273</v>
+      </c>
+      <c r="G8">
+        <v>418</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>213</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>213</v>
+      </c>
+      <c r="E11">
+        <v>285</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>286</v>
+      </c>
+      <c r="G12">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <v>202</v>
+      </c>
+      <c r="G13">
+        <v>123</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>178</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>177</v>
+      </c>
+      <c r="E14">
+        <v>251</v>
+      </c>
+      <c r="G14">
+        <v>336</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>447</v>
       </c>
       <c r="L14">
         <v>447</v>
@@ -3707,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3739,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3771,7 +4695,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>58</v>
@@ -3803,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3835,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3867,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3899,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -3931,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3963,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3995,7 +4919,7 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -4027,7 +4951,7 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4059,7 +4983,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4091,7 +5015,7 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -4168,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4200,7 +5124,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4232,7 +5156,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4264,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4296,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4328,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4360,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4392,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4424,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4456,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4488,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4520,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4552,7 +5476,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -4629,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4661,7 +5585,7 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4693,7 +5617,7 @@
         <v>80</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>123</v>
@@ -4725,7 +5649,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -4757,7 +5681,7 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4789,7 +5713,7 @@
         <v>68</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -4821,7 +5745,7 @@
         <v>135</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -4853,7 +5777,7 @@
         <v>96</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4885,7 +5809,7 @@
         <v>132</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -4917,7 +5841,7 @@
         <v>163</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -4949,7 +5873,7 @@
         <v>122</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4981,7 +5905,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -5013,7 +5937,7 @@
         <v>72</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -5081,16 +6005,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5113,16 +6037,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5145,16 +6069,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>52</v>
@@ -5186,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5209,16 +6133,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5241,16 +6165,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5273,16 +6197,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -5305,16 +6229,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5337,16 +6261,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5369,16 +6293,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -5401,16 +6325,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -5433,16 +6357,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -5465,16 +6389,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -5551,7 +6475,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>43</v>
@@ -5583,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5615,7 +6539,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -5647,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -5679,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -5711,7 +6635,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>28</v>
@@ -5743,7 +6667,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -5775,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -5807,7 +6731,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -5839,7 +6763,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -5871,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -5903,7 +6827,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -5935,7 +6859,7 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>47</v>
@@ -6003,16 +6927,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6044,7 +6968,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6067,16 +6991,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6108,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6131,16 +7055,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -6163,16 +7087,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -6195,16 +7119,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C8">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -6236,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6259,16 +7183,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -6291,16 +7215,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -6323,16 +7247,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -6355,16 +7279,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -6387,16 +7311,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -6464,16 +7388,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>222</v>
@@ -6505,7 +7429,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6528,16 +7452,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C4">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>325</v>
@@ -6569,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -6592,16 +7516,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>118</v>
@@ -6624,16 +7548,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>319</v>
@@ -6656,16 +7580,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>418</v>
@@ -6697,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -6720,16 +7644,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>106</v>
@@ -6752,16 +7676,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>115</v>
@@ -6784,16 +7708,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>51</v>
@@ -6816,16 +7740,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>123</v>
@@ -6848,16 +7772,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C14">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>336</v>
@@ -6934,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6966,7 +7890,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6998,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -7030,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -7062,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -7094,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7126,7 +8050,7 @@
         <v>61</v>
       </c>
       <c r="E8">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -7158,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7190,7 +8114,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7222,7 +8146,7 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -7254,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7286,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7318,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>7</v>
